--- a/biology/Botanique/Square_Émile-Borel/Square_Émile-Borel.xlsx
+++ b/biology/Botanique/Square_Émile-Borel/Square_Émile-Borel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Borel</t>
+          <t>Square_Émile-Borel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Émile-Borel est un ancien square du 17e arrondissement de Paris créé en 1968 et fermé en 2012 dans le cadre de la Zac Porte Pouchet.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Borel</t>
+          <t>Square_Émile-Borel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Borel</t>
+          <t>Square_Émile-Borel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square portait le nom du scientifique et homme politique Émile Borel (1871-1956).
 </t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Borel</t>
+          <t>Square_Émile-Borel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa superficie était de 6 550 m². En 2018, le square fait place à des bâtiments de bureaux dont la construction a démarré en 2016.
 En 2020, à quelques mètres est créé le jardin Hans-et-Sophie-Scholl.
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Borel</t>
+          <t>Square_Émile-Borel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,7 +619,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des espaces verts de Paris
  Portail des espaces verts   Portail de Paris                    </t>
